--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/52/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/52/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39928</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.28</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.856920000000001</v>
+        <v>5.63057</v>
       </c>
       <c r="C7" t="n">
-        <v>4856.92</v>
+        <v>5630.57</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.99645</v>
+        <v>6.56187</v>
       </c>
       <c r="C8" t="n">
-        <v>4996.45</v>
+        <v>6561.87</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.00096</v>
+        <v>7.26543</v>
       </c>
       <c r="C9" t="n">
-        <v>5000.96</v>
+        <v>7265.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247929</v>
       </c>
       <c r="B10" t="n">
-        <v>4.99836</v>
+        <v>8.06695</v>
       </c>
       <c r="C10" t="n">
-        <v>4998.36</v>
+        <v>8066.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278893</v>
+        <v>0.278854</v>
       </c>
       <c r="B11" t="n">
-        <v>4.99317</v>
+        <v>8.703290000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4993.17</v>
+        <v>8703.290000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309818</v>
+        <v>0.309784</v>
       </c>
       <c r="B12" t="n">
-        <v>4.98634</v>
+        <v>9.313600000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>4986.34</v>
+        <v>9313.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340743</v>
+        <v>0.340709</v>
       </c>
       <c r="B13" t="n">
-        <v>4.97595</v>
+        <v>9.808059999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>4975.95</v>
+        <v>9808.059999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371634</v>
       </c>
       <c r="B14" t="n">
-        <v>4.96648</v>
+        <v>10.2493</v>
       </c>
       <c r="C14" t="n">
-        <v>4966.48</v>
+        <v>10249.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.402559</v>
       </c>
       <c r="B15" t="n">
-        <v>4.953270000000001</v>
+        <v>10.5962</v>
       </c>
       <c r="C15" t="n">
-        <v>4953.27</v>
+        <v>10596.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433484</v>
       </c>
       <c r="B16" t="n">
-        <v>4.94119</v>
+        <v>10.913</v>
       </c>
       <c r="C16" t="n">
-        <v>4941.19</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464409</v>
       </c>
       <c r="B17" t="n">
-        <v>4.92625</v>
+        <v>11.0913</v>
       </c>
       <c r="C17" t="n">
-        <v>4926.25</v>
+        <v>11091.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495334</v>
       </c>
       <c r="B18" t="n">
-        <v>4.911140000000001</v>
+        <v>11.1877</v>
       </c>
       <c r="C18" t="n">
-        <v>4911.14</v>
+        <v>11187.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.526259</v>
       </c>
       <c r="B19" t="n">
-        <v>4.89492</v>
+        <v>11.188</v>
       </c>
       <c r="C19" t="n">
-        <v>4894.92</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.557184</v>
       </c>
       <c r="B20" t="n">
-        <v>4.877</v>
+        <v>11.1607</v>
       </c>
       <c r="C20" t="n">
-        <v>4877</v>
+        <v>11160.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.588109</v>
       </c>
       <c r="B21" t="n">
-        <v>4.85787</v>
+        <v>11.1265</v>
       </c>
       <c r="C21" t="n">
-        <v>4857.87</v>
+        <v>11126.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.619151</v>
       </c>
       <c r="B22" t="n">
-        <v>4.83798</v>
+        <v>11.0884</v>
       </c>
       <c r="C22" t="n">
-        <v>4837.98</v>
+        <v>11088.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650358</v>
+        <v>0.650324</v>
       </c>
       <c r="B23" t="n">
-        <v>4.816850000000001</v>
+        <v>11.0464</v>
       </c>
       <c r="C23" t="n">
-        <v>4816.85</v>
+        <v>11046.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681501</v>
       </c>
       <c r="B24" t="n">
-        <v>4.79529</v>
+        <v>11.0024</v>
       </c>
       <c r="C24" t="n">
-        <v>4795.29</v>
+        <v>11002.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712673</v>
       </c>
       <c r="B25" t="n">
-        <v>4.77292</v>
+        <v>10.9562</v>
       </c>
       <c r="C25" t="n">
-        <v>4772.92</v>
+        <v>10956.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.743846</v>
       </c>
       <c r="B26" t="n">
-        <v>4.74922</v>
+        <v>10.9078</v>
       </c>
       <c r="C26" t="n">
-        <v>4749.22</v>
+        <v>10907.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775023</v>
       </c>
       <c r="B27" t="n">
-        <v>4.72442</v>
+        <v>10.857</v>
       </c>
       <c r="C27" t="n">
-        <v>4724.42</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806195</v>
       </c>
       <c r="B28" t="n">
-        <v>4.698020000000001</v>
+        <v>10.8036</v>
       </c>
       <c r="C28" t="n">
-        <v>4698.02</v>
+        <v>10803.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837368</v>
       </c>
       <c r="B29" t="n">
-        <v>4.67073</v>
+        <v>10.7456</v>
       </c>
       <c r="C29" t="n">
-        <v>4670.73</v>
+        <v>10745.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.868545</v>
       </c>
       <c r="B30" t="n">
-        <v>4.64204</v>
+        <v>10.6822</v>
       </c>
       <c r="C30" t="n">
-        <v>4642.04</v>
+        <v>10682.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899752</v>
+        <v>0.899718</v>
       </c>
       <c r="B31" t="n">
-        <v>4.61157</v>
+        <v>10.6152</v>
       </c>
       <c r="C31" t="n">
-        <v>4611.57</v>
+        <v>10615.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.93089</v>
       </c>
       <c r="B32" t="n">
-        <v>4.57946</v>
+        <v>10.5422</v>
       </c>
       <c r="C32" t="n">
-        <v>4579.46</v>
+        <v>10542.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.962067</v>
       </c>
       <c r="B33" t="n">
-        <v>4.54497</v>
+        <v>10.4644</v>
       </c>
       <c r="C33" t="n">
-        <v>4544.97</v>
+        <v>10464.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993274</v>
+        <v>0.99324</v>
       </c>
       <c r="B34" t="n">
-        <v>4.508859999999999</v>
+        <v>10.3819</v>
       </c>
       <c r="C34" t="n">
-        <v>4508.86</v>
+        <v>10381.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02438</v>
+        <v>1.02427</v>
       </c>
       <c r="B35" t="n">
-        <v>4.47058</v>
+        <v>10.293</v>
       </c>
       <c r="C35" t="n">
-        <v>4470.58</v>
+        <v>10293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05536</v>
+        <v>1.05524</v>
       </c>
       <c r="B36" t="n">
-        <v>4.43045</v>
+        <v>10.1995</v>
       </c>
       <c r="C36" t="n">
-        <v>4430.45</v>
+        <v>10199.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08634</v>
+        <v>1.0862</v>
       </c>
       <c r="B37" t="n">
-        <v>4.38816</v>
+        <v>10.0994</v>
       </c>
       <c r="C37" t="n">
-        <v>4388.16</v>
+        <v>10099.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11735</v>
+        <v>1.11717</v>
       </c>
       <c r="B38" t="n">
-        <v>4.3438</v>
+        <v>9.99532</v>
       </c>
       <c r="C38" t="n">
-        <v>4343.8</v>
+        <v>9995.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14838</v>
+        <v>1.14814</v>
       </c>
       <c r="B39" t="n">
-        <v>4.2971</v>
+        <v>9.884180000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>4297.1</v>
+        <v>9884.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17937</v>
+        <v>1.1791</v>
       </c>
       <c r="B40" t="n">
-        <v>4.24833</v>
+        <v>9.76938</v>
       </c>
       <c r="C40" t="n">
-        <v>4248.33</v>
+        <v>9769.379999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21036</v>
+        <v>1.21</v>
       </c>
       <c r="B41" t="n">
-        <v>4.1975</v>
+        <v>5.79501</v>
       </c>
       <c r="C41" t="n">
-        <v>4197.5</v>
+        <v>5795.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24148</v>
+        <v>1.24072</v>
       </c>
       <c r="B42" t="n">
-        <v>4.144600000000001</v>
+        <v>7.64043</v>
       </c>
       <c r="C42" t="n">
-        <v>4144.6</v>
+        <v>7640.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27241</v>
+        <v>1.27144</v>
       </c>
       <c r="B43" t="n">
-        <v>4.09033</v>
+        <v>9.626950000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4090.33</v>
+        <v>9626.950000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30351</v>
+        <v>1.30266</v>
       </c>
       <c r="B44" t="n">
-        <v>4.03406</v>
+        <v>9.30926</v>
       </c>
       <c r="C44" t="n">
-        <v>4034.06</v>
+        <v>9309.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33435</v>
+        <v>1.33383</v>
       </c>
       <c r="B45" t="n">
-        <v>3.97687</v>
+        <v>9.35051</v>
       </c>
       <c r="C45" t="n">
-        <v>3976.87</v>
+        <v>9350.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3655</v>
+        <v>1.36456</v>
       </c>
       <c r="B46" t="n">
-        <v>3.91799</v>
+        <v>9.146790000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>3917.99</v>
+        <v>9146.790000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39637</v>
+        <v>1.39568</v>
       </c>
       <c r="B47" t="n">
-        <v>3.85869</v>
+        <v>8.94294</v>
       </c>
       <c r="C47" t="n">
-        <v>3858.69</v>
+        <v>8942.940000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42756</v>
+        <v>1.42683</v>
       </c>
       <c r="B48" t="n">
-        <v>3.79782</v>
+        <v>8.92895</v>
       </c>
       <c r="C48" t="n">
-        <v>3797.82</v>
+        <v>8928.950000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45842</v>
+        <v>1.45745</v>
       </c>
       <c r="B49" t="n">
-        <v>3.73704</v>
+        <v>8.851190000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>3737.04</v>
+        <v>8851.190000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48948</v>
+        <v>1.48807</v>
       </c>
       <c r="B50" t="n">
-        <v>3.67551</v>
+        <v>8.59243</v>
       </c>
       <c r="C50" t="n">
-        <v>3675.51</v>
+        <v>8592.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52044</v>
+        <v>1.51884</v>
       </c>
       <c r="B51" t="n">
-        <v>3.61407</v>
+        <v>8.43561</v>
       </c>
       <c r="C51" t="n">
-        <v>3614.07</v>
+        <v>8435.610000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55139</v>
+        <v>1.55026</v>
       </c>
       <c r="B52" t="n">
-        <v>3.55263</v>
+        <v>8.31682</v>
       </c>
       <c r="C52" t="n">
-        <v>3552.63</v>
+        <v>8316.82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58251</v>
+        <v>1.58167</v>
       </c>
       <c r="B53" t="n">
-        <v>3.49128</v>
+        <v>8.154489999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>3491.28</v>
+        <v>8154.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6132</v>
+        <v>1.61309</v>
       </c>
       <c r="B54" t="n">
-        <v>3.43137</v>
+        <v>7.979520000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>3431.37</v>
+        <v>7979.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64455</v>
+        <v>1.64451</v>
       </c>
       <c r="B55" t="n">
-        <v>3.37087</v>
+        <v>7.79812</v>
       </c>
       <c r="C55" t="n">
-        <v>3370.87</v>
+        <v>7798.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6753</v>
+        <v>1.67592</v>
       </c>
       <c r="B56" t="n">
-        <v>3.31249</v>
+        <v>7.61305</v>
       </c>
       <c r="C56" t="n">
-        <v>3312.49</v>
+        <v>7613.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70645</v>
+        <v>1.70734</v>
       </c>
       <c r="B57" t="n">
-        <v>3.2542</v>
+        <v>7.42431</v>
       </c>
       <c r="C57" t="n">
-        <v>3254.2</v>
+        <v>7424.31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73753</v>
+        <v>1.73862</v>
       </c>
       <c r="B58" t="n">
-        <v>3.19713</v>
+        <v>7.30071</v>
       </c>
       <c r="C58" t="n">
-        <v>3197.13</v>
+        <v>7300.71</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76806</v>
+        <v>1.76933</v>
       </c>
       <c r="B59" t="n">
-        <v>3.14228</v>
+        <v>7.17275</v>
       </c>
       <c r="C59" t="n">
-        <v>3142.28</v>
+        <v>7172.75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79959</v>
+        <v>1.80063</v>
       </c>
       <c r="B60" t="n">
-        <v>3.0869</v>
+        <v>6.974229999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>3086.9</v>
+        <v>6974.23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83056</v>
+        <v>1.83133</v>
       </c>
       <c r="B61" t="n">
-        <v>3.03398</v>
+        <v>6.82256</v>
       </c>
       <c r="C61" t="n">
-        <v>3033.98</v>
+        <v>6822.56</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86117</v>
+        <v>1.86268</v>
       </c>
       <c r="B62" t="n">
-        <v>2.98301</v>
+        <v>6.70162</v>
       </c>
       <c r="C62" t="n">
-        <v>2983.01</v>
+        <v>6701.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89259</v>
+        <v>1.8933</v>
       </c>
       <c r="B63" t="n">
-        <v>2.93219</v>
+        <v>6.58528</v>
       </c>
       <c r="C63" t="n">
-        <v>2932.19</v>
+        <v>6585.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92348</v>
+        <v>1.92437</v>
       </c>
       <c r="B64" t="n">
-        <v>2.88412</v>
+        <v>6.458760000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2884.12</v>
+        <v>6458.76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95404</v>
+        <v>1.95495</v>
       </c>
       <c r="B65" t="n">
-        <v>2.83812</v>
+        <v>6.300689999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>2838.12</v>
+        <v>6300.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98566</v>
+        <v>1.98553</v>
       </c>
       <c r="B66" t="n">
-        <v>2.79241</v>
+        <v>6.2011</v>
       </c>
       <c r="C66" t="n">
-        <v>2792.41</v>
+        <v>6201.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01652</v>
+        <v>2.01624</v>
       </c>
       <c r="B67" t="n">
-        <v>2.74913</v>
+        <v>6.0642</v>
       </c>
       <c r="C67" t="n">
-        <v>2749.13</v>
+        <v>6064.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04664</v>
+        <v>2.04663</v>
       </c>
       <c r="B68" t="n">
-        <v>2.70801</v>
+        <v>5.9385</v>
       </c>
       <c r="C68" t="n">
-        <v>2708.01</v>
+        <v>5938.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07801</v>
+        <v>2.07819</v>
       </c>
       <c r="B69" t="n">
-        <v>2.6672</v>
+        <v>5.85844</v>
       </c>
       <c r="C69" t="n">
-        <v>2667.2</v>
+        <v>5858.44</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10842</v>
+        <v>2.1091</v>
       </c>
       <c r="B70" t="n">
-        <v>2.62867</v>
+        <v>5.77064</v>
       </c>
       <c r="C70" t="n">
-        <v>2628.67</v>
+        <v>5770.64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13908</v>
+        <v>2.14079</v>
       </c>
       <c r="B71" t="n">
-        <v>2.59126</v>
+        <v>5.65465</v>
       </c>
       <c r="C71" t="n">
-        <v>2591.26</v>
+        <v>5654.65</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1698</v>
+        <v>2.17147</v>
       </c>
       <c r="B72" t="n">
-        <v>2.5553</v>
+        <v>5.57322</v>
       </c>
       <c r="C72" t="n">
-        <v>2555.3</v>
+        <v>5573.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20052</v>
+        <v>2.20219</v>
       </c>
       <c r="B73" t="n">
-        <v>2.52182</v>
+        <v>5.4932</v>
       </c>
       <c r="C73" t="n">
-        <v>2521.82</v>
+        <v>5493.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23124</v>
+        <v>2.23293</v>
       </c>
       <c r="B74" t="n">
-        <v>2.48993</v>
+        <v>5.42201</v>
       </c>
       <c r="C74" t="n">
-        <v>2489.93</v>
+        <v>5422.01</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26226</v>
+        <v>2.26366</v>
       </c>
       <c r="B75" t="n">
-        <v>2.45879</v>
+        <v>5.341060000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2458.79</v>
+        <v>5341.06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29335</v>
+        <v>2.29441</v>
       </c>
       <c r="B76" t="n">
-        <v>2.42867</v>
+        <v>5.26797</v>
       </c>
       <c r="C76" t="n">
-        <v>2428.67</v>
+        <v>5267.97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32443</v>
+        <v>2.32514</v>
       </c>
       <c r="B77" t="n">
-        <v>2.39966</v>
+        <v>5.21669</v>
       </c>
       <c r="C77" t="n">
-        <v>2399.66</v>
+        <v>5216.69</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35552</v>
+        <v>2.35594</v>
       </c>
       <c r="B78" t="n">
-        <v>2.37196</v>
+        <v>5.187930000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>2371.96</v>
+        <v>5187.93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38583</v>
+        <v>2.38628</v>
       </c>
       <c r="B79" t="n">
-        <v>2.35224</v>
+        <v>5.18977</v>
       </c>
       <c r="C79" t="n">
-        <v>2352.24</v>
+        <v>5189.77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41723</v>
+        <v>2.41867</v>
       </c>
       <c r="B80" t="n">
-        <v>2.33622</v>
+        <v>5.16798</v>
       </c>
       <c r="C80" t="n">
-        <v>2336.22</v>
+        <v>5167.98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44706</v>
+        <v>2.44854</v>
       </c>
       <c r="B81" t="n">
-        <v>2.33167</v>
+        <v>5.186380000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>2331.67</v>
+        <v>5186.38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47647</v>
+        <v>2.47703</v>
       </c>
       <c r="B82" t="n">
-        <v>2.32763</v>
+        <v>5.14327</v>
       </c>
       <c r="C82" t="n">
-        <v>2327.63</v>
+        <v>5143.27</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50975</v>
+        <v>2.51007</v>
       </c>
       <c r="B83" t="n">
-        <v>2.32225</v>
+        <v>5.14135</v>
       </c>
       <c r="C83" t="n">
-        <v>2322.25</v>
+        <v>5141.35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54303</v>
+        <v>2.54333</v>
       </c>
       <c r="B84" t="n">
-        <v>2.31561</v>
+        <v>5.07099</v>
       </c>
       <c r="C84" t="n">
-        <v>2315.61</v>
+        <v>5070.99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57631</v>
+        <v>2.57661</v>
       </c>
       <c r="B85" t="n">
-        <v>2.30816</v>
+        <v>5.07738</v>
       </c>
       <c r="C85" t="n">
-        <v>2308.16</v>
+        <v>5077.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60959</v>
+        <v>2.60989</v>
       </c>
       <c r="B86" t="n">
-        <v>2.30065</v>
+        <v>5.06601</v>
       </c>
       <c r="C86" t="n">
-        <v>2300.65</v>
+        <v>5066.01</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64075</v>
+        <v>2.64182</v>
       </c>
       <c r="B87" t="n">
-        <v>2.2931</v>
+        <v>5.05574</v>
       </c>
       <c r="C87" t="n">
-        <v>2293.1</v>
+        <v>5055.74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67147</v>
+        <v>2.67262</v>
       </c>
       <c r="B88" t="n">
-        <v>2.28126</v>
+        <v>5.012</v>
       </c>
       <c r="C88" t="n">
-        <v>2281.26</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70219</v>
+        <v>2.70335</v>
       </c>
       <c r="B89" t="n">
-        <v>2.27349</v>
+        <v>4.99182</v>
       </c>
       <c r="C89" t="n">
-        <v>2273.49</v>
+        <v>4991.82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73291</v>
+        <v>2.73407</v>
       </c>
       <c r="B90" t="n">
-        <v>2.264</v>
+        <v>4.97357</v>
       </c>
       <c r="C90" t="n">
-        <v>2264</v>
+        <v>4973.57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76363</v>
+        <v>2.76479</v>
       </c>
       <c r="B91" t="n">
-        <v>2.25332</v>
+        <v>4.94283</v>
       </c>
       <c r="C91" t="n">
-        <v>2253.32</v>
+        <v>4942.83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79435</v>
+        <v>2.79551</v>
       </c>
       <c r="B92" t="n">
-        <v>2.24471</v>
+        <v>4.8869</v>
       </c>
       <c r="C92" t="n">
-        <v>2244.71</v>
+        <v>4886.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82507</v>
+        <v>2.82623</v>
       </c>
       <c r="B93" t="n">
-        <v>2.23568</v>
+        <v>4.85286</v>
       </c>
       <c r="C93" t="n">
-        <v>2235.68</v>
+        <v>4852.86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85579</v>
+        <v>2.85591</v>
       </c>
       <c r="B94" t="n">
-        <v>2.22471</v>
+        <v>4.82716</v>
       </c>
       <c r="C94" t="n">
-        <v>2224.71</v>
+        <v>4827.16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88408</v>
+        <v>2.88417</v>
       </c>
       <c r="B95" t="n">
-        <v>2.2122</v>
+        <v>4.82847</v>
       </c>
       <c r="C95" t="n">
-        <v>2212.2</v>
+        <v>4828.47</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91224</v>
+        <v>2.91235</v>
       </c>
       <c r="B96" t="n">
-        <v>2.20348</v>
+        <v>4.77334</v>
       </c>
       <c r="C96" t="n">
-        <v>2203.48</v>
+        <v>4773.34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9404</v>
+        <v>2.94052</v>
       </c>
       <c r="B97" t="n">
-        <v>2.19418</v>
+        <v>4.7632</v>
       </c>
       <c r="C97" t="n">
-        <v>2194.18</v>
+        <v>4763.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.96856</v>
+        <v>2.96868</v>
       </c>
       <c r="B98" t="n">
-        <v>2.1832</v>
+        <v>4.742970000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>2183.2</v>
+        <v>4742.97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.99672</v>
+        <v>2.9979</v>
       </c>
       <c r="B99" t="n">
-        <v>2.17372</v>
+        <v>4.69067</v>
       </c>
       <c r="C99" t="n">
-        <v>2173.72</v>
+        <v>4690.67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.02956</v>
+        <v>3.03245</v>
       </c>
       <c r="B100" t="n">
-        <v>2.16453</v>
+        <v>4.692310000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>2164.53</v>
+        <v>4692.31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06476</v>
+        <v>3.06758</v>
       </c>
       <c r="B101" t="n">
-        <v>2.1507</v>
+        <v>4.64332</v>
       </c>
       <c r="C101" t="n">
-        <v>2150.7</v>
+        <v>4643.32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09996</v>
+        <v>3.10268</v>
       </c>
       <c r="B102" t="n">
-        <v>2.1402</v>
+        <v>4.62412</v>
       </c>
       <c r="C102" t="n">
-        <v>2140.2</v>
+        <v>4624.12</v>
       </c>
     </row>
   </sheetData>
